--- a/data/georgia_census/samegrelo/senaki/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/senaki/average_wages.xlsx
@@ -1097,13 +1097,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DD24ECB-F286-4A06-9B46-51663118B746}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ACDCAB6-75EF-4560-9D7B-43FB8C0CC79F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{902E4402-F524-4CD2-A015-8B165527294C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B0F232A-1B99-4B07-9D69-1883B3F2C45D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9B5320-945B-4AF2-8CCA-F978E937FDBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF1402-6ACE-4A8E-940F-A8CD2936E70C}"/>
 </file>